--- a/w12/polinomionewthon/pol_newthon.xlsx
+++ b/w12/polinomionewthon/pol_newthon.xlsx
@@ -383,7 +383,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0478780953274746"/>
+          <c:y val="0.0701298629583942"/>
+          <c:w val="0.69907756721751"/>
+          <c:h val="0.850597622395171"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -947,16 +957,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>800101</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>465667</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>812801</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>16933</xdr:rowOff>
+      <xdr:colOff>67734</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -975,6 +985,94 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4596</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491849</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>29631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="formulaC.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4483463" y="1270000"/>
+          <a:ext cx="2578519" cy="512231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>821266</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>43066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>719667</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="polnewthon.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1786466" y="3353533"/>
+          <a:ext cx="4673601" cy="1108399"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1341,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
